--- a/Employee_Reports28/Jason Puzon Dy Q0501.xlsx
+++ b/Employee_Reports28/Jason Puzon Dy Q0501.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -721,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -769,11 +766,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>-95</v>
+        <v>-103</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -816,11 +813,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>-335</v>
+        <v>-343</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -853,11 +850,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>-42</v>
+        <v>-50</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -893,7 +890,7 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="44" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -953,7 +950,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Kindly redo your exam the exam is outdated</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -978,7 +975,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Kindly redo your exam the exam is outdated</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
